--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_31.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2916202.287426251</v>
+        <v>2916202.28742625</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>805188.3171148229</v>
+        <v>914772.4371062317</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>332.1315285575836</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>143.6287400100134</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.470687503011701</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>68.16471659739283</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>224.7645624997828</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,10 +950,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>164.3907692206574</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>109.9493368428666</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>49.28375166179438</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>136.9941484302712</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>361.9524275258419</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>15.90252802695406</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>111.0108628978214</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,13 +1585,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>169.4314264580057</v>
+        <v>249.3712264393762</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1661,7 +1661,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498019</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>24.09124482852441</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1819,16 +1819,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>240.4940906080738</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2053,13 +2053,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>143.4623085010276</v>
+        <v>128.3708685936568</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>32.8965767413795</v>
+        <v>15.21232350198299</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,16 +2293,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051985</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>146.4330574210979</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>145.8490561337618</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505273999</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>157.8991948197416</v>
+        <v>141.2350439024868</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3007,16 +3007,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>80.45474577052194</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>36.88234405457748</v>
       </c>
     </row>
     <row r="32">
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>143.3158222056524</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,16 +3196,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>142.4320519083988</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3317,7 +3317,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>177.1687757919151</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>248.8055459887977</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3557,7 +3557,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,22 +3661,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>119.0881672462594</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -3709,19 +3709,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>229.5905152072329</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505273985</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3907,16 +3907,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3943,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>211.1026716806299</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>44.42232944954274</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4037,7 +4037,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174109</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>33.35146980185882</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>50.453005116544</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1560.797780174034</v>
+        <v>1503.550419308994</v>
       </c>
       <c r="C2" t="n">
-        <v>1191.835263233623</v>
+        <v>1134.587902368582</v>
       </c>
       <c r="D2" t="n">
-        <v>1191.835263233623</v>
+        <v>1134.587902368582</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353782</v>
+        <v>1134.587902368582</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
         <v>381.1377017843616</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W2" t="n">
-        <v>2320.863378499236</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X2" t="n">
-        <v>1947.397620238156</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="Y2" t="n">
-        <v>1947.397620238156</v>
+        <v>1503.550419308994</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>509.3247150619588</v>
+        <v>291.7960311703076</v>
       </c>
       <c r="C4" t="n">
-        <v>340.388532134052</v>
+        <v>291.7960311703076</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245969</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W4" t="n">
-        <v>513.8405610245969</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X4" t="n">
-        <v>513.8405610245969</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y4" t="n">
-        <v>513.8405610245969</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1376.372217881286</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="C5" t="n">
-        <v>1376.372217881286</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2136.285654263387</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.54646147304</v>
+        <v>2136.285654263387</v>
       </c>
       <c r="X5" t="n">
-        <v>1993.54646147304</v>
+        <v>2136.285654263387</v>
       </c>
       <c r="Y5" t="n">
-        <v>1603.407129497228</v>
+        <v>1746.146322287575</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4665,28 +4665,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>246.4894537511405</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>246.4894537511405</v>
+        <v>529.7758821321493</v>
       </c>
       <c r="D7" t="n">
-        <v>246.4894537511405</v>
+        <v>379.6592427198135</v>
       </c>
       <c r="E7" t="n">
-        <v>246.4894537511405</v>
+        <v>379.6592427198135</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
         <v>99.59950625323012</v>
@@ -4756,19 +4756,19 @@
         <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>648.9304977249103</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>648.9304977249103</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>648.9304977249103</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>648.9304977249103</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>428.1379185813802</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1490.978909181595</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.016392241183</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D8" t="n">
-        <v>763.7506936344325</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>763.7506936344325</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>1881.118241157406</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>1881.118241157406</v>
+        <v>1592.680346282665</v>
       </c>
       <c r="Y8" t="n">
-        <v>1490.978909181595</v>
+        <v>1592.680346282665</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4884,40 +4884,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>359.2716929833838</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="C10" t="n">
-        <v>359.2716929833838</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D10" t="n">
-        <v>359.2716929833838</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>586.579880314782</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>359.2716929833838</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>359.2716929833838</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>359.2716929833838</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>359.2716929833838</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X10" t="n">
-        <v>359.2716929833838</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y10" t="n">
-        <v>359.2716929833838</v>
+        <v>217.9192350259435</v>
       </c>
     </row>
     <row r="11">
@@ -5121,22 +5121,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>243.8806239863488</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L12" t="n">
-        <v>473.8437298546979</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M12" t="n">
-        <v>794.1790493843997</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="N12" t="n">
-        <v>1138.699705022018</v>
+        <v>1364.414563824402</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>524.8400981009108</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="C13" t="n">
-        <v>524.8400981009108</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D13" t="n">
-        <v>524.8400981009108</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E13" t="n">
-        <v>376.9270045185177</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185177</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5233,16 +5233,16 @@
         <v>1387.841167119728</v>
       </c>
       <c r="V13" t="n">
-        <v>1216.698312111641</v>
+        <v>1135.951039403186</v>
       </c>
       <c r="W13" t="n">
-        <v>927.2811420746807</v>
+        <v>846.5338693662258</v>
       </c>
       <c r="X13" t="n">
-        <v>927.2811420746807</v>
+        <v>618.5443184682084</v>
       </c>
       <c r="Y13" t="n">
-        <v>706.4885629311506</v>
+        <v>397.7517393246783</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5255,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G14" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5352,22 +5352,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>711.1141612171746</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M15" t="n">
-        <v>711.1141612171746</v>
+        <v>828.4426798345003</v>
       </c>
       <c r="N15" t="n">
-        <v>1515.525739481325</v>
+        <v>1433.809122337732</v>
       </c>
       <c r="O15" t="n">
         <v>2103.272883640391</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>247.3337308726216</v>
+        <v>545.8631874464246</v>
       </c>
       <c r="C16" t="n">
-        <v>247.3337308726216</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1474.581679822019</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1274.661669737571</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1274.661669737571</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>985.5330309511296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V16" t="n">
-        <v>985.5330309511296</v>
+        <v>1056.072936626915</v>
       </c>
       <c r="W16" t="n">
-        <v>696.115860914169</v>
+        <v>766.6557665899547</v>
       </c>
       <c r="X16" t="n">
-        <v>468.1263100161517</v>
+        <v>766.6557665899547</v>
       </c>
       <c r="Y16" t="n">
-        <v>247.3337308726216</v>
+        <v>545.8631874464246</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5501,46 +5501,46 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690734</v>
+        <v>3224.712326690732</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409607</v>
+        <v>3050.259297409605</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748356</v>
+        <v>2901.324887748354</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.0874327429</v>
+        <v>2742.087432742898</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769785</v>
+        <v>2595.552874769783</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.62619637397</v>
+        <v>2458.626196373968</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805658</v>
+        <v>2362.681322805656</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098442</v>
+        <v>2334.49815909844</v>
       </c>
       <c r="J18" t="n">
-        <v>2334.498159098442</v>
+        <v>2334.49815909844</v>
       </c>
       <c r="K18" t="n">
-        <v>2334.498159098442</v>
+        <v>2459.855719156277</v>
       </c>
       <c r="L18" t="n">
-        <v>2948.39522885533</v>
+        <v>2689.818825024626</v>
       </c>
       <c r="M18" t="n">
-        <v>2948.39522885533</v>
+        <v>3256.602307795697</v>
       </c>
       <c r="N18" t="n">
-        <v>3752.806807119481</v>
+        <v>4061.013886059847</v>
       </c>
       <c r="O18" t="n">
-        <v>4422.27056842214</v>
+        <v>4340.553951278544</v>
       </c>
       <c r="P18" t="n">
-        <v>4773.72167055707</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098068</v>
+        <v>4720.948468098066</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021846</v>
+        <v>4526.033852021844</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641233</v>
+        <v>4297.928927641231</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.77681940949</v>
+        <v>4062.776819409488</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681289</v>
+        <v>3808.539462681287</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475756</v>
+        <v>3600.687962475754</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710802</v>
+        <v>3392.9276637108</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3753.95843499698</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C19" t="n">
-        <v>3753.95843499698</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D19" t="n">
-        <v>3753.95843499698</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E19" t="n">
-        <v>3606.045341414587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>3459.155393916677</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>4637.069157803799</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>4492.157735075488</v>
+        <v>1369.248726523906</v>
       </c>
       <c r="V19" t="n">
-        <v>4492.157735075488</v>
+        <v>1114.564238318019</v>
       </c>
       <c r="W19" t="n">
-        <v>4202.740565038527</v>
+        <v>825.1470682810581</v>
       </c>
       <c r="X19" t="n">
-        <v>3974.75101414051</v>
+        <v>597.1575173830407</v>
       </c>
       <c r="Y19" t="n">
-        <v>3753.95843499698</v>
+        <v>597.1575173830407</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>159.7664105127951</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>308.836094714855</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028584</v>
+        <v>555.601222621319</v>
       </c>
       <c r="M21" t="n">
-        <v>865.5852378527474</v>
+        <v>1323.969369013781</v>
       </c>
       <c r="N21" t="n">
-        <v>1669.996816116898</v>
+        <v>2128.380947277931</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2407.921012496628</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>241.9805482336712</v>
+        <v>557.8041243279824</v>
       </c>
       <c r="C22" t="n">
-        <v>241.9805482336712</v>
+        <v>557.8041243279824</v>
       </c>
       <c r="D22" t="n">
-        <v>241.9805482336712</v>
+        <v>557.8041243279824</v>
       </c>
       <c r="E22" t="n">
-        <v>241.9805482336712</v>
+        <v>409.8910307455893</v>
       </c>
       <c r="F22" t="n">
-        <v>241.9805482336712</v>
+        <v>263.0010832476789</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5941,19 +5941,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X22" t="n">
-        <v>241.9805482336712</v>
+        <v>557.8041243279824</v>
       </c>
       <c r="Y22" t="n">
-        <v>241.9805482336712</v>
+        <v>557.8041243279824</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6011,28 +6011,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J24" t="n">
-        <v>2375.989236263798</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="K24" t="n">
-        <v>2375.989236263798</v>
+        <v>2745.388427942954</v>
       </c>
       <c r="L24" t="n">
-        <v>2605.952342132147</v>
+        <v>2992.153555849418</v>
       </c>
       <c r="M24" t="n">
-        <v>2992.279541614718</v>
+        <v>3656.505703265391</v>
       </c>
       <c r="N24" t="n">
-        <v>3796.691119878869</v>
+        <v>3986.368330929424</v>
       </c>
       <c r="O24" t="n">
-        <v>4045.444533962831</v>
+        <v>4655.832092232084</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.745155698578</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3756.895681291723</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C25" t="n">
-        <v>3756.895681291723</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D25" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>4749.779469576118</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V25" t="n">
-        <v>4495.094981370231</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="W25" t="n">
-        <v>4205.67781133327</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="X25" t="n">
-        <v>3977.688260435253</v>
+        <v>616.038489229382</v>
       </c>
       <c r="Y25" t="n">
-        <v>3756.895681291723</v>
+        <v>395.2459100858518</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,37 +6209,37 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822454</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899127</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>2500.819361250803</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>2911.709630095316</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L27" t="n">
-        <v>3141.672735963665</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M27" t="n">
-        <v>3448.992869243627</v>
+        <v>1095.548343721096</v>
       </c>
       <c r="N27" t="n">
-        <v>3778.855496907659</v>
+        <v>1899.959921985247</v>
       </c>
       <c r="O27" t="n">
-        <v>4448.319258210318</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P27" t="n">
-        <v>4791.460014500963</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3922.894617924885</v>
+        <v>4019.137726741513</v>
       </c>
       <c r="C28" t="n">
-        <v>3753.958434996978</v>
+        <v>4019.137726741513</v>
       </c>
       <c r="D28" t="n">
-        <v>3753.958434996978</v>
+        <v>3869.021087329177</v>
       </c>
       <c r="E28" t="n">
-        <v>3606.045341414585</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916675</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916675</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916675</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I28" t="n">
         <v>3459.155393916675</v>
@@ -6409,25 +6409,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S28" t="n">
-        <v>4660.934562929845</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T28" t="n">
-        <v>4501.440426748288</v>
+        <v>4718.19291250673</v>
       </c>
       <c r="U28" t="n">
-        <v>4212.311787961846</v>
+        <v>4718.19291250673</v>
       </c>
       <c r="V28" t="n">
-        <v>4212.311787961846</v>
+        <v>4718.19291250673</v>
       </c>
       <c r="W28" t="n">
-        <v>3922.894617924885</v>
+        <v>4428.775742469769</v>
       </c>
       <c r="X28" t="n">
-        <v>3922.894617924885</v>
+        <v>4200.786191571752</v>
       </c>
       <c r="Y28" t="n">
-        <v>3922.894617924885</v>
+        <v>4200.786191571752</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6461,19 +6461,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6503,10 +6503,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>2334.498159098441</v>
       </c>
       <c r="J30" t="n">
-        <v>2334.498159098441</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K30" t="n">
-        <v>2334.498159098441</v>
+        <v>2626.17692130864</v>
       </c>
       <c r="L30" t="n">
-        <v>2564.46126496679</v>
+        <v>3240.073991065529</v>
       </c>
       <c r="M30" t="n">
-        <v>3332.829411359251</v>
+        <v>3452.170464241251</v>
       </c>
       <c r="N30" t="n">
-        <v>3671.090189975886</v>
+        <v>3796.691119878869</v>
       </c>
       <c r="O30" t="n">
-        <v>4340.553951278545</v>
+        <v>4045.444533962831</v>
       </c>
       <c r="P30" t="n">
-        <v>4860.854573014292</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q30" t="n">
         <v>4860.854573014292</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3756.463349866642</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C31" t="n">
-        <v>3756.463349866642</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>3756.463349866642</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3756.463349866642</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4637.069157803799</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>4347.940519017357</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>4266.673099047132</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>3977.255929010172</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X31" t="n">
-        <v>3977.255929010172</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y31" t="n">
-        <v>3756.463349866642</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6725,10 +6725,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6777,28 +6777,28 @@
         <v>2334.498159098441</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250803</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="K33" t="n">
-        <v>2626.17692130864</v>
+        <v>2745.388427942954</v>
       </c>
       <c r="L33" t="n">
-        <v>3240.073991065529</v>
+        <v>2745.388427942954</v>
       </c>
       <c r="M33" t="n">
-        <v>3240.073991065529</v>
+        <v>3513.756574335415</v>
       </c>
       <c r="N33" t="n">
-        <v>3584.594646703147</v>
+        <v>4318.168152599566</v>
       </c>
       <c r="O33" t="n">
-        <v>4254.058408005807</v>
+        <v>4318.168152599566</v>
       </c>
       <c r="P33" t="n">
-        <v>4565.745155698578</v>
+        <v>4838.468774335313</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014292</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R33" t="n">
         <v>4860.854573014292</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3603.918850690061</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="C34" t="n">
-        <v>3459.155393916675</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916675</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916675</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916675</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916675</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>4660.934562929845</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>4437.14914771935</v>
+        <v>1243.970407616295</v>
       </c>
       <c r="U34" t="n">
-        <v>4148.020508932908</v>
+        <v>954.8417688298529</v>
       </c>
       <c r="V34" t="n">
-        <v>3893.336020727022</v>
+        <v>954.8417688298529</v>
       </c>
       <c r="W34" t="n">
-        <v>3603.918850690061</v>
+        <v>954.8417688298529</v>
       </c>
       <c r="X34" t="n">
-        <v>3603.918850690061</v>
+        <v>726.8522179318355</v>
       </c>
       <c r="Y34" t="n">
-        <v>3603.918850690061</v>
+        <v>506.0596387883054</v>
       </c>
     </row>
     <row r="35">
@@ -6914,67 +6914,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>138.7081686256435</v>
+        <v>505.7284077856596</v>
       </c>
       <c r="L36" t="n">
-        <v>752.6052383825321</v>
+        <v>1119.625477542548</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.940557912234</v>
+        <v>1426.94561082251</v>
       </c>
       <c r="N36" t="n">
-        <v>1877.352136176385</v>
+        <v>1771.466266460128</v>
       </c>
       <c r="O36" t="n">
-        <v>2126.105550260347</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P36" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>712.8170085027681</v>
+        <v>3778.509585296638</v>
       </c>
       <c r="C37" t="n">
-        <v>712.8170085027681</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="D37" t="n">
-        <v>562.7003690904323</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="E37" t="n">
-        <v>562.7003690904323</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="F37" t="n">
-        <v>415.8104215925219</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T37" t="n">
-        <v>964.135741824786</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="U37" t="n">
-        <v>964.135741824786</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="V37" t="n">
-        <v>712.8170085027681</v>
+        <v>4406.250074723958</v>
       </c>
       <c r="W37" t="n">
-        <v>712.8170085027681</v>
+        <v>4406.250074723958</v>
       </c>
       <c r="X37" t="n">
-        <v>712.8170085027681</v>
+        <v>4178.260523825941</v>
       </c>
       <c r="Y37" t="n">
-        <v>712.8170085027681</v>
+        <v>3957.467944682411</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028584</v>
+        <v>2649.889045452863</v>
       </c>
       <c r="L39" t="n">
-        <v>673.3931994989871</v>
+        <v>3263.786115209751</v>
       </c>
       <c r="M39" t="n">
-        <v>980.7133327789487</v>
+        <v>3625.046103052828</v>
       </c>
       <c r="N39" t="n">
-        <v>1785.124911043099</v>
+        <v>4429.457681316979</v>
       </c>
       <c r="O39" t="n">
-        <v>2033.878325127062</v>
+        <v>4678.211095400941</v>
       </c>
       <c r="P39" t="n">
-        <v>2554.178946862809</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R39" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S39" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T39" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U39" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W39" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X39" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y39" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4006.046332499342</v>
+        <v>4039.399954839299</v>
       </c>
       <c r="C40" t="n">
-        <v>3885.755254472817</v>
+        <v>4039.399954839299</v>
       </c>
       <c r="D40" t="n">
-        <v>3885.755254472817</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="E40" t="n">
-        <v>3885.755254472817</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="F40" t="n">
-        <v>3738.865306974907</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="G40" t="n">
-        <v>3570.689985294727</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H40" t="n">
         <v>3570.689985294727</v>
@@ -7357,25 +7357,25 @@
         <v>4749.779469576118</v>
       </c>
       <c r="S40" t="n">
-        <v>4549.85945949167</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T40" t="n">
-        <v>4549.85945949167</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="U40" t="n">
-        <v>4260.730820705228</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="V40" t="n">
-        <v>4006.046332499342</v>
+        <v>4271.309566159736</v>
       </c>
       <c r="W40" t="n">
-        <v>4006.046332499342</v>
+        <v>4039.399954839299</v>
       </c>
       <c r="X40" t="n">
-        <v>4006.046332499342</v>
+        <v>4039.399954839299</v>
       </c>
       <c r="Y40" t="n">
-        <v>4006.046332499342</v>
+        <v>4039.399954839299</v>
       </c>
     </row>
     <row r="41">
@@ -7388,40 +7388,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155874</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805459</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822451</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7491,22 +7491,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L42" t="n">
-        <v>711.1141612171745</v>
+        <v>760.2552547135185</v>
       </c>
       <c r="M42" t="n">
-        <v>1479.482307609636</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="N42" t="n">
-        <v>2082.664708052743</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4072.250396089493</v>
+        <v>657.1994242851239</v>
       </c>
       <c r="C43" t="n">
-        <v>4072.250396089493</v>
+        <v>657.1994242851239</v>
       </c>
       <c r="D43" t="n">
-        <v>3922.133756677158</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E43" t="n">
-        <v>3774.220663094764</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F43" t="n">
-        <v>3627.330715596854</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916675</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>4660.934562929845</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>4660.934562929845</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U43" t="n">
-        <v>4371.805924143403</v>
+        <v>1174.606145220102</v>
       </c>
       <c r="V43" t="n">
-        <v>4117.121435937516</v>
+        <v>1174.606145220102</v>
       </c>
       <c r="W43" t="n">
-        <v>4117.121435937516</v>
+        <v>885.1889751831412</v>
       </c>
       <c r="X43" t="n">
-        <v>4072.250396089493</v>
+        <v>657.1994242851239</v>
       </c>
       <c r="Y43" t="n">
-        <v>4072.250396089493</v>
+        <v>657.1994242851239</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7670,28 +7670,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V44" t="n">
         <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J45" t="n">
-        <v>2500.819361250803</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="K45" t="n">
-        <v>2500.819361250803</v>
+        <v>159.6513124788426</v>
       </c>
       <c r="L45" t="n">
-        <v>3114.716431007691</v>
+        <v>773.5483822357312</v>
       </c>
       <c r="M45" t="n">
-        <v>3883.084577400153</v>
+        <v>1541.916528628193</v>
       </c>
       <c r="N45" t="n">
-        <v>4022.405978681254</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O45" t="n">
-        <v>4271.159392765216</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P45" t="n">
-        <v>4791.460014500963</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>528.105874218302</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="C46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="F46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7828,28 +7828,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1447.95363912705</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1447.95363912705</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U46" t="n">
-        <v>1447.95363912705</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V46" t="n">
-        <v>1447.95363912705</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W46" t="n">
-        <v>1158.536469090089</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X46" t="n">
-        <v>930.5469181920719</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="Y46" t="n">
-        <v>709.7543390485417</v>
+        <v>130.9054447954967</v>
       </c>
     </row>
   </sheetData>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,10 +8775,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8790,7 +8790,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,28 +9006,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>311.3202817579485</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,28 +9243,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>147.9076983360812</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711655</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>21.27095140116329</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9492,16 +9492,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>282.1585173815949</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>360.6383981171831</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,28 +9954,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>347.9628723789335</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,19 +10188,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>8.482980760204214</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,25 +10431,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>151.8563059867072</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,16 +10662,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10683,10 +10683,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10905,10 +10905,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>332.7383637699365</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>54.48470157890432</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11069,7 +11069,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11148,19 +11148,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>276.0805785647217</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298017</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>200.9063086900729</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11385,7 +11385,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>82.70621686582228</v>
+        <v>2.766416884451786</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>85.87310757526838</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,16 +23707,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>11.64355271575417</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23941,13 +23941,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>142.7750438975497</v>
+        <v>157.8664838049205</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>133.5969917219981</v>
+        <v>151.2812449613946</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,16 +24181,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>33.39892276083935</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>2.766416884450592</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,7 +24379,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24418,13 +24418,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>63.64836623864761</v>
+        <v>80.3125171559025</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24838,7 +24838,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24847,13 +24847,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24886,7 +24886,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,16 +24895,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>171.6828975533061</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>181.7023092975173</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25075,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>23.93099889297548</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25084,16 +25084,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25120,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>79.1155091499904</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,22 +25309,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>2.663204390022202</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,28 +25357,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>3.332097335030284</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,22 +25549,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>48.15865385236839</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25597,19 +25597,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>56.93248312935808</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,25 +25831,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>75.13468071794742</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>181.2873259394944</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26020,10 +26020,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>133.895351296769</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26038,10 +26038,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26068,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>147.4678048670592</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885326</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885324</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885326</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="C2" t="n">
         <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="E2" t="n">
         <v>606095.0425934484</v>
       </c>
       <c r="F2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="G2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934481</v>
       </c>
       <c r="H2" t="n">
         <v>606095.0425934485</v>
       </c>
       <c r="I2" t="n">
+        <v>606095.0425934482</v>
+      </c>
+      <c r="J2" t="n">
         <v>606095.0425934485</v>
       </c>
-      <c r="J2" t="n">
-        <v>606095.0425934487</v>
-      </c>
       <c r="K2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="L2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="M2" t="n">
+        <v>606095.0425934482</v>
+      </c>
+      <c r="N2" t="n">
         <v>606095.0425934483</v>
-      </c>
-      <c r="L2" t="n">
-        <v>606095.0425934485</v>
-      </c>
-      <c r="M2" t="n">
-        <v>606095.0425934489</v>
-      </c>
-      <c r="N2" t="n">
-        <v>606095.0425934487</v>
       </c>
       <c r="O2" t="n">
         <v>606095.0425934485</v>
       </c>
       <c r="P2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934487</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758299</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905759288</v>
       </c>
       <c r="H4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="M4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905759647</v>
       </c>
     </row>
     <row r="5">
@@ -26482,7 +26482,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26497,7 +26497,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26509,7 +26509,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-175578.724813753</v>
+        <v>-175578.7248137532</v>
       </c>
       <c r="C6" t="n">
         <v>414389.1544007912</v>
       </c>
       <c r="D6" t="n">
-        <v>414389.1544007913</v>
+        <v>414389.1544007912</v>
       </c>
       <c r="E6" t="n">
-        <v>-11840.11352274023</v>
+        <v>-11840.1135227402</v>
       </c>
       <c r="F6" t="n">
-        <v>513319.9229541559</v>
+        <v>513319.9229541561</v>
       </c>
       <c r="G6" t="n">
-        <v>513319.9229541559</v>
+        <v>513319.9229541555</v>
       </c>
       <c r="H6" t="n">
         <v>513319.9229541561</v>
       </c>
       <c r="I6" t="n">
-        <v>513319.9229541561</v>
+        <v>513319.9229541557</v>
       </c>
       <c r="J6" t="n">
         <v>336896.7037615632</v>
       </c>
       <c r="K6" t="n">
+        <v>513319.9229541559</v>
+      </c>
+      <c r="L6" t="n">
+        <v>513319.9229541559</v>
+      </c>
+      <c r="M6" t="n">
+        <v>378518.9077203185</v>
+      </c>
+      <c r="N6" t="n">
         <v>513319.9229541558</v>
-      </c>
-      <c r="L6" t="n">
-        <v>513319.9229541561</v>
-      </c>
-      <c r="M6" t="n">
-        <v>378518.9077203191</v>
-      </c>
-      <c r="N6" t="n">
-        <v>513319.9229541562</v>
       </c>
       <c r="O6" t="n">
         <v>513319.9229541561</v>
       </c>
       <c r="P6" t="n">
-        <v>513319.9229541559</v>
+        <v>513319.9229541561</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,13 +27385,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>74.7445171841278</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>205.6122287073996</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175.3612926789256</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>80.45075642081953</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27585,7 +27585,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,7 +27594,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>157.9692791636977</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,10 +27670,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>163.3614892494775</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>35.47171118006462</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>236.9981225801833</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>269.8818973114403</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>7.778673152627164</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>151.3442930716738</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>101.1346760521975</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-8.682195192673605e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -31127,7 +31127,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,10 +31145,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>35.71704454958012</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R3" t="n">
         <v>50.44659727034982</v>
@@ -31364,10 +31364,10 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>87.78329382423996</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,19 +31592,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>11.76595806653259</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31622,19 +31622,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31841,16 +31841,16 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>21.52118431133891</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>376.200433055773</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31859,10 +31859,10 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677465</v>
@@ -32078,16 +32078,16 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>263.4805927935491</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32096,10 +32096,10 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677465</v>
@@ -32318,10 +32318,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>248.937538627645</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813462</v>
@@ -32333,10 +32333,10 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677465</v>
@@ -32494,7 +32494,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
         <v>76.0697047810465</v>
@@ -32549,13 +32549,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724846</v>
@@ -32564,13 +32564,13 @@
         <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32786,28 +32786,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>66.65846459885773</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
         <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
@@ -33023,10 +33023,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -33038,16 +33038,16 @@
         <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>162.1184633103974</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677465</v>
@@ -33260,28 +33260,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>356.3728957156766</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
@@ -33439,10 +33439,10 @@
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647499</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S32" t="n">
         <v>76.0697047810465</v>
@@ -33497,28 +33497,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>130.3467374539597</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33734,31 +33734,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>286.0138952197337</v>
       </c>
       <c r="L36" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>247.9090090799105</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
@@ -33916,7 +33916,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S38" t="n">
         <v>76.0697047810465</v>
@@ -33971,10 +33971,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
         <v>387.8120847358985</v>
@@ -33989,7 +33989,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -34211,19 +34211,19 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>310.8257548758043</v>
       </c>
       <c r="M42" t="n">
         <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
         <v>341.0678223458549</v>
@@ -34232,7 +34232,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677465</v>
@@ -34445,10 +34445,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>387.8120847358985</v>
@@ -34457,19 +34457,19 @@
         <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>272.0704002460615</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677465</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34793,10 +34793,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>148.1449823495585</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>244.8587209724397</v>
       </c>
       <c r="O12" t="n">
         <v>676.2260215178377</v>
@@ -35507,7 +35507,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>611.4812550537694</v>
       </c>
       <c r="O15" t="n">
-        <v>593.6839839990566</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>572.5085684556266</v>
       </c>
       <c r="N18" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>355.0011132676059</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>63.18113035606998</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>776.1294408004662</v>
@@ -36212,16 +36212,16 @@
         <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>139.5622729371505</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>390.2294944268393</v>
+        <v>671.0627751676494</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>205.366627934489</v>
       </c>
       <c r="P27" t="n">
-        <v>346.6068245360043</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>214.2388617936583</v>
       </c>
       <c r="N30" t="n">
-        <v>341.6775541582172</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37087,10 +37087,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>314.8350986795666</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>11.87453190068573</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>412.6376932579533</v>
       </c>
       <c r="L36" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>432.3973703055174</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>581.9960687259609</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>364.9090786293706</v>
       </c>
       <c r="N39" t="n">
         <v>812.5369477415665</v>
@@ -37637,10 +37637,10 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>543.1117203993892</v>
       </c>
       <c r="M42" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>609.2751519627346</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>251.2660748322851</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>63.06486971571388</v>
       </c>
       <c r="L45" t="n">
         <v>620.0980502594834</v>
@@ -38105,19 +38105,19 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>140.7286881627281</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2916202.28742625</v>
+        <v>2991731.957091057</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>914772.4371062317</v>
+        <v>866553.2403527277</v>
       </c>
     </row>
     <row r="8">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>332.1315285575836</v>
+        <v>88.00588675253543</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -716,10 +718,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>68.16471659739283</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>60.66188343657038</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>143.4089938480712</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -953,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>164.3907692206574</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1057,13 +1059,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>109.9493368428666</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -1108,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>32.85515447204182</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>361.9524275258419</v>
+        <v>106.3174398066284</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>15.90252802695406</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1333,31 +1335,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>27.37301815329025</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,10 +1378,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722624</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>54.21592811475347</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,19 +1578,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>249.3712264393762</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1661,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>159.5084665035238</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1822,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>240.4940906080738</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1901,7 +1903,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2014,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>128.3708685936568</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>199.9622182029765</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2239,19 +2241,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>141.3404922664043</v>
       </c>
       <c r="G22" t="n">
-        <v>15.21232350198299</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2321,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>146.4330574210979</v>
+        <v>48.06571898911204</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2536,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2606,7 +2608,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2710,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -2764,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>141.2350439024868</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>82.65428220450593</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2852,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2965,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>139.153727875004</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3010,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.88234405457748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3193,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>89.12244402686329</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>142.4320519083988</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3281,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274076</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3319,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3326,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174137</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>177.1687757919151</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3439,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>150.3454825180137</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051995</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3667,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>110.690715863946</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3721,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>229.5905152072329</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505273985</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,7 +3796,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>124.5011772843727</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>211.1026716806299</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4037,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174109</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>33.35146980185882</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>16.02845249187322</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1503.550419308994</v>
+        <v>919.0673236324992</v>
       </c>
       <c r="C2" t="n">
-        <v>1134.587902368582</v>
+        <v>919.0673236324992</v>
       </c>
       <c r="D2" t="n">
-        <v>1134.587902368582</v>
+        <v>560.8016250257488</v>
       </c>
       <c r="E2" t="n">
-        <v>1134.587902368582</v>
+        <v>560.8016250257488</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4355,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>1893.689751284806</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W2" t="n">
-        <v>1893.689751284806</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X2" t="n">
-        <v>1893.689751284806</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="Y2" t="n">
-        <v>1503.550419308994</v>
+        <v>1305.667163696621</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>291.7960311703076</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="C4" t="n">
-        <v>291.7960311703076</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>637.4374353261467</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>637.4374353261467</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>637.4374353261467</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>637.4374353261467</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>637.4374353261467</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005474</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="X4" t="n">
-        <v>473.4444960005474</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="Y4" t="n">
-        <v>473.4444960005474</v>
+        <v>348.0202652891861</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1359.546482223453</v>
+        <v>1659.880644283887</v>
       </c>
       <c r="C5" t="n">
-        <v>990.5839652830418</v>
+        <v>1290.918127343475</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762914</v>
+        <v>932.6524287367247</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>546.8641761384804</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>539.9186753892769</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>525.9952713278678</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>198.8005513638707</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2136.285654263387</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W5" t="n">
-        <v>2136.285654263387</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X5" t="n">
-        <v>2136.285654263387</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="Y5" t="n">
-        <v>1746.146322287575</v>
+        <v>1659.880644283887</v>
       </c>
     </row>
     <row r="6">
@@ -4699,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600561</v>
+        <v>437.5354894428046</v>
       </c>
       <c r="C7" t="n">
-        <v>529.7758821321493</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="D7" t="n">
-        <v>379.6592427198135</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="E7" t="n">
-        <v>379.6592427198135</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F7" t="n">
         <v>268.5993065148977</v>
@@ -4756,19 +4758,19 @@
         <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>665.525040340822</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>665.525040340822</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>665.525040340822</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>437.5354894428046</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>437.5354894428046</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1206.080506218543</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C8" t="n">
-        <v>837.1179892781316</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X8" t="n">
-        <v>1592.680346282665</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="Y8" t="n">
-        <v>1592.680346282665</v>
+        <v>1610.120910258947</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4886,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>217.9192350259435</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>217.9192350259435</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5039,10 +5041,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5066,10 +5068,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5081,10 +5083,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5130,13 +5132,13 @@
         <v>1122.004430061687</v>
       </c>
       <c r="N12" t="n">
-        <v>1364.414563824402</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="O12" t="n">
-        <v>2033.878325127062</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>397.7517393246783</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C13" t="n">
-        <v>397.7517393246783</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D13" t="n">
-        <v>247.6350999123426</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5224,25 +5226,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119728</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V13" t="n">
-        <v>1135.951039403186</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="W13" t="n">
-        <v>846.5338693662258</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="X13" t="n">
-        <v>618.5443184682084</v>
+        <v>670.8029673508211</v>
       </c>
       <c r="Y13" t="n">
-        <v>397.7517393246783</v>
+        <v>450.0103882072909</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>508.1073603047985</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L15" t="n">
-        <v>508.1073603047985</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M15" t="n">
-        <v>828.4426798345003</v>
+        <v>1323.128242957076</v>
       </c>
       <c r="N15" t="n">
-        <v>1433.809122337732</v>
+        <v>1652.990870621109</v>
       </c>
       <c r="O15" t="n">
-        <v>2103.272883640391</v>
+        <v>2322.454631923768</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2527.477112705978</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>545.8631874464246</v>
+        <v>723.5186631855839</v>
       </c>
       <c r="C16" t="n">
-        <v>376.9270045185177</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D16" t="n">
-        <v>376.9270045185177</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E16" t="n">
-        <v>376.9270045185177</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V16" t="n">
-        <v>1056.072936626915</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W16" t="n">
-        <v>766.6557665899547</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="X16" t="n">
-        <v>766.6557665899547</v>
+        <v>905.1671280158237</v>
       </c>
       <c r="Y16" t="n">
-        <v>545.8631874464246</v>
+        <v>905.1671280158237</v>
       </c>
     </row>
     <row r="17">
@@ -5504,40 +5506,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>2459.855719156277</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>2689.818825024626</v>
+        <v>781.9683334201522</v>
       </c>
       <c r="M18" t="n">
-        <v>3256.602307795697</v>
+        <v>1089.288466700114</v>
       </c>
       <c r="N18" t="n">
-        <v>4061.013886059847</v>
+        <v>1433.809122337732</v>
       </c>
       <c r="O18" t="n">
-        <v>4340.553951278544</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P18" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>415.509052552801</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="C19" t="n">
-        <v>415.509052552801</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5698,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1369.248726523906</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V19" t="n">
-        <v>1114.564238318019</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W19" t="n">
-        <v>825.1470682810581</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="X19" t="n">
-        <v>597.1575173830407</v>
+        <v>618.5443184682084</v>
       </c>
       <c r="Y19" t="n">
-        <v>597.1575173830407</v>
+        <v>397.7517393246783</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>159.7664105127951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>308.836094714855</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>555.601222621319</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>1323.969369013781</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N21" t="n">
-        <v>2128.380947277931</v>
+        <v>1476.356849144414</v>
       </c>
       <c r="O21" t="n">
-        <v>2407.921012496628</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P21" t="n">
-        <v>2612.943493278838</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>557.8041243279824</v>
+        <v>877.6314179392335</v>
       </c>
       <c r="C22" t="n">
-        <v>557.8041243279824</v>
+        <v>708.6952350113266</v>
       </c>
       <c r="D22" t="n">
-        <v>557.8041243279824</v>
+        <v>558.5785955989909</v>
       </c>
       <c r="E22" t="n">
-        <v>409.8910307455893</v>
+        <v>558.5785955989909</v>
       </c>
       <c r="F22" t="n">
-        <v>263.0010832476789</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G22" t="n">
         <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,46 +5916,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.48306298006</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119724</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119724</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119724</v>
       </c>
       <c r="U22" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119724</v>
       </c>
       <c r="V22" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119724</v>
       </c>
       <c r="W22" t="n">
-        <v>785.7936752259998</v>
+        <v>1098.423997082764</v>
       </c>
       <c r="X22" t="n">
-        <v>557.8041243279824</v>
+        <v>1098.423997082764</v>
       </c>
       <c r="Y22" t="n">
-        <v>557.8041243279824</v>
+        <v>877.6314179392335</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6002,7 +6004,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899127</v>
@@ -6011,28 +6013,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2334.498159098442</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2745.388427942954</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>2992.153555849418</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M24" t="n">
-        <v>3656.505703265391</v>
+        <v>1211.711801605472</v>
       </c>
       <c r="N24" t="n">
-        <v>3986.368330929424</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O24" t="n">
-        <v>4655.832092232084</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
-        <v>4860.854573014293</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>247.3337308726216</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="C25" t="n">
-        <v>247.3337308726216</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6184,13 +6186,13 @@
         <v>844.0280401273993</v>
       </c>
       <c r="W25" t="n">
-        <v>844.0280401273993</v>
+        <v>554.6108700904388</v>
       </c>
       <c r="X25" t="n">
-        <v>616.038489229382</v>
+        <v>554.6108700904388</v>
       </c>
       <c r="Y25" t="n">
-        <v>395.2459100858518</v>
+        <v>554.6108700904388</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,37 +6211,37 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899127</v>
@@ -6260,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6309,19 +6311,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="L27" t="n">
-        <v>327.180197328635</v>
+        <v>343.9822193667499</v>
       </c>
       <c r="M27" t="n">
-        <v>1095.548343721096</v>
+        <v>1112.350365759211</v>
       </c>
       <c r="N27" t="n">
-        <v>1899.959921985247</v>
+        <v>1916.761944023362</v>
       </c>
       <c r="O27" t="n">
-        <v>2103.272883640391</v>
+        <v>2196.302009242059</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4019.137726741513</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="C28" t="n">
-        <v>4019.137726741513</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="D28" t="n">
-        <v>3869.021087329177</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E28" t="n">
-        <v>3721.107993746784</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F28" t="n">
-        <v>3721.107993746784</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746784</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4718.19291250673</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>4718.19291250673</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V28" t="n">
-        <v>4718.19291250673</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W28" t="n">
-        <v>4428.775742469769</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="X28" t="n">
-        <v>4200.786191571752</v>
+        <v>757.7241344124302</v>
       </c>
       <c r="Y28" t="n">
-        <v>4200.786191571752</v>
+        <v>674.2349604684848</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6460,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6476,31 +6478,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>2500.819361250803</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K30" t="n">
-        <v>2626.17692130864</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L30" t="n">
-        <v>3240.073991065529</v>
+        <v>711.1141612171748</v>
       </c>
       <c r="M30" t="n">
-        <v>3452.170464241251</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N30" t="n">
-        <v>3796.691119878869</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O30" t="n">
-        <v>4045.444533962831</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>4565.745155698578</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6595,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>266.1532743881928</v>
+        <v>237.7764125461485</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>237.7764125461485</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>237.7764125461485</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>237.7764125461485</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>237.7764125461485</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>237.7764125461485</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6637,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>755.1831334811264</v>
       </c>
       <c r="W31" t="n">
-        <v>531.3977182706318</v>
+        <v>465.7659634441658</v>
       </c>
       <c r="X31" t="n">
-        <v>303.4081673726145</v>
+        <v>237.7764125461485</v>
       </c>
       <c r="Y31" t="n">
-        <v>266.1532743881928</v>
+        <v>237.7764125461485</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514085</v>
@@ -6713,37 +6715,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>2745.388427942954</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L33" t="n">
-        <v>2745.388427942954</v>
+        <v>711.1141612171746</v>
       </c>
       <c r="M33" t="n">
-        <v>3513.756574335415</v>
+        <v>1018.434294497136</v>
       </c>
       <c r="N33" t="n">
-        <v>4318.168152599566</v>
+        <v>1822.845872761287</v>
       </c>
       <c r="O33" t="n">
-        <v>4318.168152599566</v>
+        <v>2349.156466080599</v>
       </c>
       <c r="P33" t="n">
-        <v>4838.468774335313</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q33" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>506.0596387883054</v>
+        <v>3775.243809179248</v>
       </c>
       <c r="C34" t="n">
-        <v>506.0596387883054</v>
+        <v>3775.243809179248</v>
       </c>
       <c r="D34" t="n">
-        <v>506.0596387883054</v>
+        <v>3775.243809179248</v>
       </c>
       <c r="E34" t="n">
-        <v>506.0596387883054</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="F34" t="n">
-        <v>359.1696912903951</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>4770.831902280088</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>4770.831902280088</v>
       </c>
       <c r="T34" t="n">
-        <v>1243.970407616295</v>
+        <v>4547.046487069594</v>
       </c>
       <c r="U34" t="n">
-        <v>954.8417688298529</v>
+        <v>4257.917848283152</v>
       </c>
       <c r="V34" t="n">
-        <v>954.8417688298529</v>
+        <v>4003.233360077265</v>
       </c>
       <c r="W34" t="n">
-        <v>954.8417688298529</v>
+        <v>4003.233360077265</v>
       </c>
       <c r="X34" t="n">
-        <v>726.8522179318355</v>
+        <v>3775.243809179248</v>
       </c>
       <c r="Y34" t="n">
-        <v>506.0596387883054</v>
+        <v>3775.243809179248</v>
       </c>
     </row>
     <row r="35">
@@ -6926,49 +6928,49 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
@@ -7011,22 +7013,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K36" t="n">
-        <v>505.7284077856596</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L36" t="n">
-        <v>1119.625477542548</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>1426.94561082251</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N36" t="n">
-        <v>1771.466266460128</v>
+        <v>2192.176613678825</v>
       </c>
       <c r="O36" t="n">
         <v>2440.930027762787</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3778.509585296638</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="C37" t="n">
-        <v>3609.573402368731</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D37" t="n">
-        <v>3609.573402368731</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E37" t="n">
-        <v>3609.573402368731</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F37" t="n">
-        <v>3609.573402368731</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G37" t="n">
-        <v>3609.573402368731</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>4660.934562929845</v>
+        <v>1347.052146802333</v>
       </c>
       <c r="T37" t="n">
-        <v>4660.934562929845</v>
+        <v>1347.052146802333</v>
       </c>
       <c r="U37" t="n">
-        <v>4660.934562929845</v>
+        <v>1057.923508015892</v>
       </c>
       <c r="V37" t="n">
-        <v>4406.250074723958</v>
+        <v>1057.923508015892</v>
       </c>
       <c r="W37" t="n">
-        <v>4406.250074723958</v>
+        <v>768.5063379789311</v>
       </c>
       <c r="X37" t="n">
-        <v>4178.260523825941</v>
+        <v>540.5167870809138</v>
       </c>
       <c r="Y37" t="n">
-        <v>3957.467944682411</v>
+        <v>540.5167870809138</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,28 +7159,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7187,16 +7189,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7208,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>2649.889045452863</v>
+        <v>264.0657286834809</v>
       </c>
       <c r="L39" t="n">
-        <v>3263.786115209751</v>
+        <v>494.0288345518301</v>
       </c>
       <c r="M39" t="n">
-        <v>3625.046103052828</v>
+        <v>1262.396980944291</v>
       </c>
       <c r="N39" t="n">
-        <v>4429.457681316979</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O39" t="n">
-        <v>4678.211095400941</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>4860.854573014292</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4039.399954839299</v>
+        <v>506.0324822735078</v>
       </c>
       <c r="C40" t="n">
-        <v>4039.399954839299</v>
+        <v>506.0324822735078</v>
       </c>
       <c r="D40" t="n">
-        <v>3889.283315426963</v>
+        <v>355.915842861172</v>
       </c>
       <c r="E40" t="n">
-        <v>3889.283315426963</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T40" t="n">
-        <v>4525.994054365623</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U40" t="n">
-        <v>4525.994054365623</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V40" t="n">
-        <v>4271.309566159736</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W40" t="n">
-        <v>4039.399954839299</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="X40" t="n">
-        <v>4039.399954839299</v>
+        <v>726.8250614170379</v>
       </c>
       <c r="Y40" t="n">
-        <v>4039.399954839299</v>
+        <v>506.0324822735078</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155874</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805459</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822451</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690735</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409608</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748357</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742901</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769786</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373971</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805659</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098443</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098443</v>
       </c>
       <c r="K42" t="n">
-        <v>222.5746515181232</v>
+        <v>2334.498159098443</v>
       </c>
       <c r="L42" t="n">
-        <v>760.2552547135185</v>
+        <v>2948.395228855331</v>
       </c>
       <c r="M42" t="n">
-        <v>1528.62340110598</v>
+        <v>3716.763375247793</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>4046.626002911826</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>4295.379416995788</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.74515569858</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S42" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098069</v>
       </c>
       <c r="T42" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021847</v>
       </c>
       <c r="U42" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641234</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409491</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X42" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475757</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710803</v>
       </c>
     </row>
     <row r="43">
@@ -7543,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>657.1994242851239</v>
+        <v>538.8019868198129</v>
       </c>
       <c r="C43" t="n">
-        <v>657.1994242851239</v>
+        <v>369.865803891906</v>
       </c>
       <c r="D43" t="n">
-        <v>507.0827848727882</v>
+        <v>369.865803891906</v>
       </c>
       <c r="E43" t="n">
-        <v>359.1696912903951</v>
+        <v>369.865803891906</v>
       </c>
       <c r="F43" t="n">
-        <v>359.1696912903951</v>
+        <v>222.9758563939957</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>222.9758563939957</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>1174.606145220102</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V43" t="n">
-        <v>1174.606145220102</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W43" t="n">
-        <v>885.1889751831412</v>
+        <v>720.4504516500526</v>
       </c>
       <c r="X43" t="n">
-        <v>657.1994242851239</v>
+        <v>720.4504516500526</v>
       </c>
       <c r="Y43" t="n">
-        <v>657.1994242851239</v>
+        <v>720.4504516500526</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,25 +7633,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7658,7 +7660,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7667,31 +7669,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231262</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141866</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7713,37 +7715,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028581</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>159.6513124788426</v>
+        <v>519.3751698006479</v>
       </c>
       <c r="L45" t="n">
-        <v>773.5483822357312</v>
+        <v>749.3382756689971</v>
       </c>
       <c r="M45" t="n">
-        <v>1541.916528628193</v>
+        <v>1069.673595198699</v>
       </c>
       <c r="N45" t="n">
-        <v>1886.437184265811</v>
+        <v>1874.08517346285</v>
       </c>
       <c r="O45" t="n">
-        <v>2135.190598349773</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.9054447954967</v>
+        <v>822.6075462588844</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028581</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028581</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028581</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028581</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028581</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028581</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1482.725914505505</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1482.725914505505</v>
       </c>
       <c r="T46" t="n">
-        <v>964.135741824786</v>
+        <v>1258.940499295011</v>
       </c>
       <c r="U46" t="n">
-        <v>675.0071030383442</v>
+        <v>1258.940499295011</v>
       </c>
       <c r="V46" t="n">
-        <v>420.3226148324574</v>
+        <v>1004.256011089124</v>
       </c>
       <c r="W46" t="n">
-        <v>130.9054447954967</v>
+        <v>1004.256011089124</v>
       </c>
       <c r="X46" t="n">
-        <v>130.9054447954967</v>
+        <v>1004.256011089124</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.9054447954967</v>
+        <v>1004.256011089124</v>
       </c>
     </row>
   </sheetData>
@@ -8301,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8532,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>194.3570488013782</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8775,13 +8777,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8790,7 +8792,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,25 +9011,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9249,13 +9251,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9264,7 +9266,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711655</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9477,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>21.27095140116329</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9720,25 +9722,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>360.6383981171831</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9966,13 +9968,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>347.9628723789335</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>154.3984412510507</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,13 +10193,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10206,10 +10208,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,28 +10430,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>249.2631596975909</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>151.8563059867072</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10671,10 +10673,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>436.1942749365417</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10686,7 +10688,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,19 +10901,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>54.48470157890432</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11151,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11160,7 +11162,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298017</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>200.9063086900729</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11391,7 +11393,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>125.6160520671838</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,7 +23433,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,19 +23466,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>2.766416884451786</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>7.738354595104028</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23710,16 +23712,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>11.64355271575417</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23902,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>157.8664838049205</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>25.74743718606064</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,19 +24129,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>4.080555756526991</v>
       </c>
       <c r="G22" t="n">
-        <v>151.2812449613946</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>33.39892276083935</v>
+        <v>131.7662611928253</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24652,7 +24654,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>80.3125171559025</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>135.9303711475889</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24853,7 +24855,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>9.760100492532132</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24889,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>181.7023092975173</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25081,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>20.84190837692948</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>79.1155091499904</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.663204390022202</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25327,10 +25329,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>47.57532746558957</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>35.74324678262317</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>56.93248312935808</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>24.41265108316347</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>75.13468071794742</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>133.895351296769</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26041,7 +26043,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>93.93589991191959</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885324</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885324</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885327</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885326</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885323</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>636307.3716448199</v>
+      </c>
+      <c r="C2" t="n">
         <v>636307.3716448197</v>
-      </c>
-      <c r="C2" t="n">
-        <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448196</v>
       </c>
       <c r="E2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="F2" t="n">
         <v>606095.0425934485</v>
       </c>
       <c r="G2" t="n">
-        <v>606095.0425934481</v>
+        <v>606095.0425934483</v>
       </c>
       <c r="H2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="I2" t="n">
-        <v>606095.0425934482</v>
+        <v>606095.0425934483</v>
       </c>
       <c r="J2" t="n">
         <v>606095.0425934485</v>
       </c>
       <c r="K2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934488</v>
       </c>
       <c r="L2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="M2" t="n">
-        <v>606095.0425934482</v>
+        <v>606095.0425934489</v>
       </c>
       <c r="N2" t="n">
-        <v>606095.0425934483</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="O2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934488</v>
       </c>
       <c r="P2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934488</v>
       </c>
     </row>
     <row r="3">
@@ -26390,7 +26392,7 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758402</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905759288</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
+        <v>787.7936905758179</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="I4" t="n">
-        <v>787.7936905758693</v>
-      </c>
       <c r="J4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
+        <v>787.7936905758386</v>
+      </c>
+      <c r="N4" t="n">
+        <v>787.7936905758696</v>
+      </c>
+      <c r="O4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="N4" t="n">
-        <v>787.7936905758693</v>
-      </c>
-      <c r="O4" t="n">
-        <v>787.7936905758694</v>
-      </c>
       <c r="P4" t="n">
-        <v>787.7936905759647</v>
+        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-175578.7248137532</v>
+        <v>-175578.7248137531</v>
       </c>
       <c r="C6" t="n">
-        <v>414389.1544007912</v>
+        <v>414389.1544007913</v>
       </c>
       <c r="D6" t="n">
         <v>414389.1544007912</v>
       </c>
       <c r="E6" t="n">
-        <v>-11840.1135227402</v>
+        <v>-11840.11352274007</v>
       </c>
       <c r="F6" t="n">
         <v>513319.9229541561</v>
       </c>
       <c r="G6" t="n">
-        <v>513319.9229541555</v>
+        <v>513319.9229541558</v>
       </c>
       <c r="H6" t="n">
-        <v>513319.9229541561</v>
+        <v>513319.9229541562</v>
       </c>
       <c r="I6" t="n">
-        <v>513319.9229541557</v>
+        <v>513319.9229541558</v>
       </c>
       <c r="J6" t="n">
         <v>336896.7037615632</v>
       </c>
       <c r="K6" t="n">
-        <v>513319.9229541559</v>
+        <v>513319.9229541561</v>
       </c>
       <c r="L6" t="n">
-        <v>513319.9229541559</v>
+        <v>513319.922954156</v>
       </c>
       <c r="M6" t="n">
-        <v>378518.9077203185</v>
+        <v>378518.9077203192</v>
       </c>
       <c r="N6" t="n">
-        <v>513319.9229541558</v>
+        <v>513319.9229541561</v>
       </c>
       <c r="O6" t="n">
-        <v>513319.9229541561</v>
+        <v>513319.9229541562</v>
       </c>
       <c r="P6" t="n">
-        <v>513319.9229541561</v>
+        <v>513319.9229541565</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26743,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26762,22 +26764,22 @@
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26820,13 +26822,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>74.7445171841278</v>
+        <v>318.870158989176</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27427,7 +27429,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,10 +27438,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>80.45075642081953</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27579,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>86.00330854358748</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,10 +27596,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>8.522322396790088</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,13 +27675,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>163.3614892494775</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,13 +27779,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>35.47171118006462</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27828,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>253.4267197699359</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>7.778673152627164</v>
+        <v>263.4136608718406</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,13 +28013,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>151.3442930716738</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>197.662087304794</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28096,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-6.429578708524912e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28995,7 +28997,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>-3.758651504979533e-12</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -30046,7 +30048,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>-6.830214554862199e-13</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -31127,7 +31129,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,10 +31147,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q3" t="n">
-        <v>60.29709682323551</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
         <v>50.44659727034982</v>
@@ -31373,7 +31375,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993462</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,22 +31849,22 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>376.200433055773</v>
+        <v>345.0892733589616</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677465</v>
@@ -32075,19 +32077,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>263.4805927935491</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32096,10 +32098,10 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>26.97154965336499</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677465</v>
@@ -32315,16 +32317,16 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>44.34128004747942</v>
       </c>
       <c r="M18" t="n">
-        <v>248.937538627645</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32336,7 +32338,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677465</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,19 +32560,19 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>165.7024187025505</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32786,19 +32788,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>182.1893522438191</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32807,10 +32809,10 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -33026,10 +33028,10 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
         <v>452.5584109724846</v>
@@ -33038,7 +33040,7 @@
         <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
         <v>341.0678223458549</v>
@@ -33172,10 +33174,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,37 +33186,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>356.3728957156766</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>131.4209907335601</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
@@ -33290,7 +33292,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,28 +33496,28 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -33573,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,25 +33733,25 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>286.0138952197337</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -33758,7 +33760,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
@@ -33810,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>431.3549154130535</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>100.1578341526431</v>
@@ -34047,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,7 +34207,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -34214,22 +34216,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>310.8257548758043</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>88.60834453478856</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,37 +34447,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>131.797289020366</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34793,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35498,16 +35500,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>244.8587209724397</v>
+        <v>693.0899356191818</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>611.4812550537694</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
         <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>97.06706330319257</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>276.6272455710644</v>
       </c>
       <c r="M18" t="n">
-        <v>572.5085684556266</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>63.18113035606998</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>34.36070661921716</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36291,7 +36293,7 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515205991</v>
       </c>
       <c r="P22" t="n">
         <v>178.3836006118008</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>671.0627751676494</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>530.1900145040394</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,7 +36679,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>776.1294408004662</v>
@@ -36686,13 +36688,13 @@
         <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>205.366627934489</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>361.4918561825754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M30" t="n">
-        <v>214.2388617936583</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>479.4216529937803</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37008,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>531.6268619386991</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>11.87453190068573</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37245,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,19 +37387,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6376932579533</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>348.0006622602202</v>
+        <v>304.8525628532083</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37461,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37482,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>364.9090786293706</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>300.0132033297202</v>
       </c>
       <c r="O39" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37719,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>543.1117203993892</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M42" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>273.0967057603955</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37956,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349582</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>63.06486971571388</v>
+        <v>258.4210870585856</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2991731.957091057</v>
+        <v>2984714.942199344</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>866553.2403527277</v>
+        <v>646513.0562941778</v>
       </c>
     </row>
     <row r="8">
@@ -661,19 +661,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>60.46179076613115</v>
       </c>
       <c r="F2" t="n">
-        <v>88.00588675253543</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>60.66188343657038</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>171.7498680634315</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -913,10 +913,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>143.4089938480712</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>64.76935934992291</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>32.85515447204182</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>28.51033041214341</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,13 +1141,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>106.3174398066284</v>
+        <v>270.7773459850742</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,22 +1335,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>27.37301815329025</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722624</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>54.21592811475347</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>22.42123215846201</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>159.5084665035238</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1900,10 +1900,10 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1.822822436190945</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>199.9622182029765</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,22 +2241,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>141.3404922664043</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>115.526976800218</v>
       </c>
     </row>
     <row r="23">
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051985</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>48.06571898911204</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>102.9372637928067</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.287249111317</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>141.6377868388146</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>82.65428220450593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>139.153727875004</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>107.4681487101244</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3034,13 +3034,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,13 +3189,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>140.8594116461196</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>89.12244402686329</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3246,7 +3246,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274076</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174137</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>148.7416974947219</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,10 +3432,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>150.3454825180137</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051995</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>110.690715863946</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>86.19053366520829</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>124.5011772843727</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>103.4286568439259</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>42.73966146813952</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>16.02845249187322</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>919.0673236324992</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C2" t="n">
-        <v>919.0673236324992</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D2" t="n">
-        <v>560.8016250257488</v>
+        <v>135.884402556362</v>
       </c>
       <c r="E2" t="n">
-        <v>560.8016250257488</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2048.575150942547</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>1695.806495672433</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X2" t="n">
-        <v>1695.806495672433</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y2" t="n">
-        <v>1305.667163696621</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4433,19 +4433,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.0202652891861</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C4" t="n">
-        <v>348.0202652891861</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>637.4374353261467</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>637.4374353261467</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>637.4374353261467</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="U4" t="n">
-        <v>637.4374353261467</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="V4" t="n">
-        <v>637.4374353261467</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="W4" t="n">
-        <v>348.0202652891861</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="X4" t="n">
-        <v>348.0202652891861</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="Y4" t="n">
-        <v>348.0202652891861</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1659.880644283887</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C5" t="n">
-        <v>1290.918127343475</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>932.6524287367247</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>546.8641761384804</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>539.9186753892769</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>525.9952713278678</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>198.8005513638707</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2631.72549571527</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2631.72549571527</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2631.72549571527</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520778</v>
+        <v>2300.662608371699</v>
       </c>
       <c r="W5" t="n">
-        <v>2423.485734520778</v>
+        <v>1947.893953101585</v>
       </c>
       <c r="X5" t="n">
-        <v>2050.019976259699</v>
+        <v>1574.428194840505</v>
       </c>
       <c r="Y5" t="n">
-        <v>1659.880644283887</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>437.5354894428046</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="C7" t="n">
-        <v>268.5993065148977</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D7" t="n">
-        <v>268.5993065148977</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>268.5993065148977</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>665.525040340822</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>665.525040340822</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>665.525040340822</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>437.5354894428046</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>437.5354894428046</v>
+        <v>699.3306706588146</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1610.120910258947</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1241.158393318536</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V8" t="n">
-        <v>1717.512263598976</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W8" t="n">
-        <v>1717.512263598976</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X8" t="n">
-        <v>1610.120910258947</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1610.120910258947</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5038,49 +5038,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047985</v>
+        <v>436.8967109626374</v>
       </c>
       <c r="L12" t="n">
-        <v>1122.004430061687</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M12" t="n">
-        <v>1122.004430061687</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N12" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>395.2468244550147</v>
+        <v>711.3743239205529</v>
       </c>
       <c r="C13" t="n">
-        <v>395.2468244550147</v>
+        <v>542.438140992646</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1476.268561306931</v>
       </c>
       <c r="U13" t="n">
-        <v>898.7925182488384</v>
+        <v>1476.268561306931</v>
       </c>
       <c r="V13" t="n">
-        <v>898.7925182488384</v>
+        <v>1221.584073101044</v>
       </c>
       <c r="W13" t="n">
-        <v>898.7925182488384</v>
+        <v>932.166903064083</v>
       </c>
       <c r="X13" t="n">
-        <v>670.8029673508211</v>
+        <v>932.166903064083</v>
       </c>
       <c r="Y13" t="n">
-        <v>450.0103882072909</v>
+        <v>711.3743239205529</v>
       </c>
     </row>
     <row r="14">
@@ -5257,19 +5257,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5278,28 +5278,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
@@ -5311,13 +5311,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>388.8958536704856</v>
+        <v>436.8967109626369</v>
       </c>
       <c r="L15" t="n">
-        <v>1002.792923427374</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M15" t="n">
-        <v>1323.128242957076</v>
+        <v>1819.161927111987</v>
       </c>
       <c r="N15" t="n">
-        <v>1652.990870621109</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O15" t="n">
-        <v>2322.454631923768</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P15" t="n">
-        <v>2527.477112705978</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>723.5186631855839</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>562.3990000507114</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028587</v>
@@ -5436,16 +5436,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V16" t="n">
-        <v>1133.156678913841</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W16" t="n">
-        <v>1133.156678913841</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>905.1671280158237</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>905.1671280158237</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5530,19 +5530,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>508.1073603047985</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>781.9683334201522</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.288466700114</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N18" t="n">
-        <v>1433.809122337732</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O18" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>397.7517393246783</v>
+        <v>565.0010960824701</v>
       </c>
       <c r="C19" t="n">
-        <v>397.7517393246783</v>
+        <v>396.0649131545632</v>
       </c>
       <c r="D19" t="n">
-        <v>247.6350999123426</v>
+        <v>245.9482737422275</v>
       </c>
       <c r="E19" t="n">
-        <v>247.6350999123426</v>
+        <v>245.9482737422275</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>99.05832624431713</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V19" t="n">
-        <v>820.5263570570736</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="W19" t="n">
-        <v>820.5263570570736</v>
+        <v>785.7936752260002</v>
       </c>
       <c r="X19" t="n">
-        <v>618.5443184682084</v>
+        <v>785.7936752260002</v>
       </c>
       <c r="Y19" t="n">
-        <v>397.7517393246783</v>
+        <v>565.0010960824701</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514095</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5764,7 +5764,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5776,28 +5776,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>508.1073603047985</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>1122.004430061687</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M21" t="n">
-        <v>1442.339749591389</v>
+        <v>1819.161927111987</v>
       </c>
       <c r="N21" t="n">
-        <v>1476.356849144414</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>2145.820610447073</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>877.6314179392335</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>708.6952350113266</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>558.5785955989909</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>558.5785955989909</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.48306298006</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585743</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119724</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119724</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119724</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U22" t="n">
-        <v>1387.841167119724</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V22" t="n">
-        <v>1387.841167119724</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W22" t="n">
-        <v>1098.423997082764</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X22" t="n">
-        <v>1098.423997082764</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y22" t="n">
-        <v>877.6314179392335</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5974,10 +5974,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
@@ -5989,28 +5989,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6074,19 +6074,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>904.39166832551</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>1211.711801605472</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N24" t="n">
-        <v>1736.599915964471</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183168</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>506.0596387883054</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="C25" t="n">
-        <v>506.0596387883054</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="D25" t="n">
-        <v>506.0596387883054</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E25" t="n">
-        <v>506.0596387883054</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F25" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6180,19 +6180,19 @@
         <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>1098.712528333286</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V25" t="n">
-        <v>844.0280401273993</v>
+        <v>1283.86413298558</v>
       </c>
       <c r="W25" t="n">
-        <v>554.6108700904388</v>
+        <v>994.4469629486189</v>
       </c>
       <c r="X25" t="n">
-        <v>554.6108700904388</v>
+        <v>766.4574120506015</v>
       </c>
       <c r="Y25" t="n">
-        <v>554.6108700904388</v>
+        <v>545.6648329070714</v>
       </c>
     </row>
     <row r="26">
@@ -6217,19 +6217,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6244,7 +6244,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6305,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>343.9822193667499</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>1112.350365759211</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N27" t="n">
-        <v>1916.761944023362</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>2196.302009242059</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>674.2349604684848</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="C28" t="n">
-        <v>674.2349604684848</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="D28" t="n">
-        <v>674.2349604684848</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684848</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
         <v>208.7516828383384</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V28" t="n">
-        <v>1275.130855347408</v>
+        <v>909.3712637033467</v>
       </c>
       <c r="W28" t="n">
-        <v>985.7136853104475</v>
+        <v>766.3027921489885</v>
       </c>
       <c r="X28" t="n">
-        <v>757.7241344124302</v>
+        <v>538.3132412509711</v>
       </c>
       <c r="Y28" t="n">
-        <v>674.2349604684848</v>
+        <v>538.3132412509711</v>
       </c>
     </row>
     <row r="29">
@@ -6460,55 +6460,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,22 +6539,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>711.1141612171748</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>1479.482307609636</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N30" t="n">
-        <v>1954.109744073479</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
         <v>2623.573505376138</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>237.7764125461485</v>
+        <v>673.9335914287639</v>
       </c>
       <c r="C31" t="n">
-        <v>237.7764125461485</v>
+        <v>673.9335914287639</v>
       </c>
       <c r="D31" t="n">
-        <v>237.7764125461485</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="E31" t="n">
-        <v>237.7764125461485</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F31" t="n">
-        <v>237.7764125461485</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G31" t="n">
-        <v>237.7764125461485</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U31" t="n">
-        <v>1009.867621687013</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V31" t="n">
-        <v>755.1831334811264</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W31" t="n">
-        <v>465.7659634441658</v>
+        <v>855.5820562590036</v>
       </c>
       <c r="X31" t="n">
-        <v>237.7764125461485</v>
+        <v>855.5820562590036</v>
       </c>
       <c r="Y31" t="n">
-        <v>237.7764125461485</v>
+        <v>855.5820562590036</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6697,55 +6697,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>711.1141612171746</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>1018.434294497136</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N33" t="n">
-        <v>1822.845872761287</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>2349.156466080599</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3775.243809179248</v>
+        <v>558.0926555785013</v>
       </c>
       <c r="C34" t="n">
-        <v>3775.243809179248</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D34" t="n">
-        <v>3775.243809179248</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E34" t="n">
-        <v>3627.330715596855</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F34" t="n">
-        <v>3627.330715596855</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916676</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4770.831902280088</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4770.831902280088</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>4547.046487069594</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>4257.917848283152</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>4003.233360077265</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W34" t="n">
-        <v>4003.233360077265</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X34" t="n">
-        <v>3775.243809179248</v>
+        <v>558.0926555785013</v>
       </c>
       <c r="Y34" t="n">
-        <v>3775.243809179248</v>
+        <v>558.0926555785013</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028589</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>508.1073603047986</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>1890.372576454149</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N36" t="n">
-        <v>2192.176613678825</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>2440.930027762787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
         <v>2623.573505376138</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>358.8683222506741</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C37" t="n">
-        <v>358.8683222506741</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D37" t="n">
-        <v>208.7516828383384</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E37" t="n">
-        <v>208.7516828383384</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1347.052146802333</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1347.052146802333</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1057.923508015892</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>1057.923508015892</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W37" t="n">
-        <v>768.5063379789311</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X37" t="n">
-        <v>540.5167870809138</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y37" t="n">
-        <v>540.5167870809138</v>
+        <v>692.3809108364826</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7186,37 +7186,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>264.0657286834809</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>494.0288345518301</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>1262.396980944291</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N39" t="n">
-        <v>1559.410052240715</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>506.0324822735078</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C40" t="n">
-        <v>506.0324822735078</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D40" t="n">
-        <v>355.915842861172</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557903</v>
+        <v>1211.935115357083</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557903</v>
+        <v>1211.935115357083</v>
       </c>
       <c r="V40" t="n">
-        <v>1244.231782352016</v>
+        <v>957.2506271511957</v>
       </c>
       <c r="W40" t="n">
-        <v>954.8146123150552</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="X40" t="n">
-        <v>726.8250614170379</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y40" t="n">
-        <v>506.0324822735078</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
         <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822466</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690735</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409608</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748357</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742901</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769786</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373971</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805659</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2334.498159098443</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2334.498159098443</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L42" t="n">
-        <v>2948.395228855331</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M42" t="n">
-        <v>3716.763375247793</v>
+        <v>1645.803509761998</v>
       </c>
       <c r="N42" t="n">
-        <v>4046.626002911826</v>
+        <v>2450.215088026149</v>
       </c>
       <c r="O42" t="n">
-        <v>4295.379416995788</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>4565.74515569858</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098069</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021847</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641234</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409491</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475757</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710803</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>538.8019868198129</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C43" t="n">
-        <v>369.865803891906</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D43" t="n">
-        <v>369.865803891906</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E43" t="n">
-        <v>369.865803891906</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>222.9758563939957</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>222.9758563939957</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473455</v>
+        <v>1194.522869722014</v>
       </c>
       <c r="U43" t="n">
-        <v>1009.867621687013</v>
+        <v>905.3942309355725</v>
       </c>
       <c r="V43" t="n">
-        <v>1009.867621687013</v>
+        <v>905.3942309355725</v>
       </c>
       <c r="W43" t="n">
-        <v>720.4504516500526</v>
+        <v>615.9770608986119</v>
       </c>
       <c r="X43" t="n">
-        <v>720.4504516500526</v>
+        <v>615.9770608986119</v>
       </c>
       <c r="Y43" t="n">
-        <v>720.4504516500526</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7633,22 +7633,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514082</v>
@@ -7666,10 +7666,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>519.3751698006479</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L45" t="n">
-        <v>749.3382756689971</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M45" t="n">
-        <v>1069.673595198699</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N45" t="n">
-        <v>1874.08517346285</v>
+        <v>2283.893885873787</v>
       </c>
       <c r="O45" t="n">
-        <v>2543.548934765509</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2543.548934765509</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>822.6075462588844</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="C46" t="n">
-        <v>653.6713633309776</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D46" t="n">
-        <v>503.5547239186418</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E46" t="n">
-        <v>355.6416303362487</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F46" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G46" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1482.725914505505</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1482.725914505505</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1258.940499295011</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1258.940499295011</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>1004.256011089124</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W46" t="n">
-        <v>1004.256011089124</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X46" t="n">
-        <v>1004.256011089124</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y46" t="n">
-        <v>1004.256011089124</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
   </sheetData>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8777,19 +8777,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9017,16 +9017,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9251,22 +9251,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,19 +9491,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9725,22 +9725,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9968,13 +9968,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>154.3984412510507</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10205,7 +10205,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -10430,28 +10430,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>249.2631596975909</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10676,19 +10676,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>436.1942749365417</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,16 +10913,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11150,19 +11150,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>317.7057569191812</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11396,7 +11396,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>125.6160520671838</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>199.1263288999272</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>7.738354595104028</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,13 +23901,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>164.6707460271867</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23949,13 +23949,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>25.74743718606064</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,22 +24129,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>4.080555756526991</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>103.0576765518768</v>
       </c>
     </row>
     <row r="23">
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>131.7662611928253</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,19 +24420,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>149.2003795310213</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,16 +24609,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24660,16 +24660,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>144.8852114977764</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>135.9303711475889</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>9.760100492532132</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>179.0548496264666</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25077,13 +25077,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>26.38740945250828</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>20.84190837692948</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>31.09028268721536</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,10 +25320,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>47.57532746558957</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>35.74324678262317</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>135.3570273931809</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25797,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.41265108316347</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>118.1189042144633</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>137.0923187137978</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>93.93589991191959</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885324</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885326</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885326</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>762506.6664885327</v>
+        <v>762506.6664885326</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885324</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885324</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="C2" t="n">
         <v>636307.3716448197</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="E2" t="n">
+        <v>606095.042593449</v>
+      </c>
+      <c r="F2" t="n">
+        <v>606095.0425934487</v>
+      </c>
+      <c r="G2" t="n">
+        <v>606095.0425934488</v>
+      </c>
+      <c r="H2" t="n">
+        <v>606095.0425934488</v>
+      </c>
+      <c r="I2" t="n">
         <v>606095.0425934485</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="K2" t="n">
         <v>606095.0425934485</v>
       </c>
-      <c r="G2" t="n">
-        <v>606095.0425934483</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="M2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="N2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="O2" t="n">
         <v>606095.0425934487</v>
       </c>
-      <c r="I2" t="n">
-        <v>606095.0425934483</v>
-      </c>
-      <c r="J2" t="n">
-        <v>606095.0425934485</v>
-      </c>
-      <c r="K2" t="n">
-        <v>606095.0425934488</v>
-      </c>
-      <c r="L2" t="n">
-        <v>606095.0425934485</v>
-      </c>
-      <c r="M2" t="n">
-        <v>606095.0425934489</v>
-      </c>
-      <c r="N2" t="n">
-        <v>606095.0425934487</v>
-      </c>
-      <c r="O2" t="n">
-        <v>606095.0425934488</v>
-      </c>
       <c r="P2" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.0425934484</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26392,7 +26392,7 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758402</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905758696</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="G4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758179</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905758695</v>
-      </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758386</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="N4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="O4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="P4" t="n">
         <v>787.7936905758696</v>
-      </c>
-      <c r="O4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="P4" t="n">
-        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26478,37 +26478,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-175578.7248137531</v>
+        <v>-175578.7248137533</v>
       </c>
       <c r="C6" t="n">
-        <v>414389.1544007913</v>
+        <v>414389.1544007912</v>
       </c>
       <c r="D6" t="n">
-        <v>414389.1544007912</v>
+        <v>414389.154400791</v>
       </c>
       <c r="E6" t="n">
-        <v>-11840.11352274007</v>
+        <v>-12814.70478246152</v>
       </c>
       <c r="F6" t="n">
-        <v>513319.9229541561</v>
+        <v>512345.3316944342</v>
       </c>
       <c r="G6" t="n">
-        <v>513319.9229541558</v>
+        <v>512345.3316944346</v>
       </c>
       <c r="H6" t="n">
-        <v>513319.9229541562</v>
+        <v>512345.3316944346</v>
       </c>
       <c r="I6" t="n">
-        <v>513319.9229541558</v>
+        <v>512345.3316944345</v>
       </c>
       <c r="J6" t="n">
-        <v>336896.7037615632</v>
+        <v>335922.1125018414</v>
       </c>
       <c r="K6" t="n">
-        <v>513319.9229541561</v>
+        <v>512345.3316944344</v>
       </c>
       <c r="L6" t="n">
-        <v>513319.922954156</v>
+        <v>512345.3316944343</v>
       </c>
       <c r="M6" t="n">
-        <v>378518.9077203192</v>
+        <v>377544.316460597</v>
       </c>
       <c r="N6" t="n">
-        <v>513319.9229541561</v>
+        <v>512345.3316944343</v>
       </c>
       <c r="O6" t="n">
-        <v>513319.9229541562</v>
+        <v>512345.3316944345</v>
       </c>
       <c r="P6" t="n">
-        <v>513319.9229541565</v>
+        <v>512345.3316944343</v>
       </c>
     </row>
   </sheetData>
@@ -26743,40 +26743,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26822,13 +26822,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,19 +27381,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>321.4685793061306</v>
       </c>
       <c r="F2" t="n">
-        <v>318.870158989176</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27429,22 +27429,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27554,10 +27554,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>86.00330854358748</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>53.2852373946528</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>8.522322396790088</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>109.6463534590486</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,13 +27782,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>253.4267197699359</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>190.0743229399514</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,13 +27861,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>263.4136608718406</v>
+        <v>98.95375469339484</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,22 +28055,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>197.662087304794</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-6.429578708524912e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28997,7 +28997,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>-3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -30048,7 +30048,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-6.830214554862199e-13</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -31366,7 +31366,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31375,7 +31375,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>86.43447689993462</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
@@ -31387,7 +31387,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034982</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31840,28 +31840,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>48.48571443651693</v>
       </c>
       <c r="L12" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>345.0892733589616</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
@@ -31989,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,37 +32001,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>48.48571443651636</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>26.97154965336499</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,34 +32311,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>44.34128004747942</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677465</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,34 +32548,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>147.8809216101168</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>165.7024187025505</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,37 +32788,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>182.1893522438191</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,25 +33025,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -33052,10 +33052,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>131.4209907335601</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -33289,10 +33289,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,28 +33727,28 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -33760,13 +33760,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>431.3549154130535</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>88.60834453478856</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34389,7 +34389,7 @@
         <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647508</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
@@ -34447,22 +34447,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>131.797289020366</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>91.84465193776708</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -34471,7 +34471,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,7 +35023,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>175.1095124747365</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>693.0899356191818</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>175.109512474736</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>97.06706330319257</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>276.6272455710644</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>380.1668871337018</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>34.36070661921716</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515205991</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>530.1900145040394</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>361.4918561825754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>479.4216529937803</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178378</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415666</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O33" t="n">
-        <v>531.6268619386991</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>304.8525628532083</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O36" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>300.0132033297202</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O39" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>251.2660748322851</v>
+        <v>175.1095124747368</v>
       </c>
       <c r="P42" t="n">
-        <v>273.0967057603955</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R44" t="n">
         <v>59.82538970349808</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>258.4210870585856</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>343.1107267700522</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2984714.942199344</v>
+        <v>2989654.205048376</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>646513.0562941778</v>
+        <v>649927.545028462</v>
       </c>
     </row>
     <row r="8">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>60.46179076613115</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>101.3120708005649</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>171.7498680634315</v>
+        <v>171.7498680634317</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>78.5535293707181</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>64.76935934992291</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>28.51033041214341</v>
+        <v>28.51033041214364</v>
       </c>
     </row>
     <row r="8">
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>5.983388191319379</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>270.7773459850742</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>22.42123215846201</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>245.8447460296572</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.526976800218</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.822822436190945</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2058,19 +2058,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051985</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2481,10 +2481,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>102.9372637928067</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.287249111317</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274077</v>
@@ -2611,7 +2611,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2724,13 +2724,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>97.24018360678589</v>
       </c>
       <c r="W28" t="n">
-        <v>141.6377868388146</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784681</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3009,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>107.4681487101244</v>
+        <v>215.2379773637537</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>140.8594116461196</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3246,13 +3246,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>148.7416974947219</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>183.1796758467</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>86.19053366520829</v>
+        <v>139.0832994039658</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>103.4286568439259</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>42.73966146813952</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>863.1126181035243</v>
+        <v>546.1098286224644</v>
       </c>
       <c r="C2" t="n">
-        <v>494.1501011631125</v>
+        <v>177.1473116820527</v>
       </c>
       <c r="D2" t="n">
-        <v>135.884402556362</v>
+        <v>177.1473116820527</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>177.1473116820527</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>170.2018109328492</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>156.2784068714402</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>156.2784068714402</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2013.317548404538</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1639.851790143458</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="Y2" t="n">
-        <v>1249.712458167646</v>
+        <v>546.1098286224644</v>
       </c>
     </row>
     <row r="3">
@@ -4406,7 +4406,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4430,7 +4430,7 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
@@ -4470,52 +4470,52 @@
         <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
         <v>554.6442689908469</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1187.828354776384</v>
+        <v>1253.251950079336</v>
       </c>
       <c r="C5" t="n">
-        <v>818.8658378359718</v>
+        <v>884.2894331389243</v>
       </c>
       <c r="D5" t="n">
-        <v>460.6001392292213</v>
+        <v>526.0237345321739</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>140.2354819339296</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>133.2899811847262</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2631.72549571527</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2631.72549571527</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2631.72549571527</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2300.662608371699</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1947.893953101585</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1574.428194840505</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>1574.428194840505</v>
+        <v>1639.851790143458</v>
       </c>
     </row>
     <row r="6">
@@ -4637,10 +4637,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4670,7 +4670,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4731,43 +4731,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
         <v>699.3306706588146</v>
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548715</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548715</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="9">
@@ -4880,13 +4880,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
         <v>713.8062203571349</v>
@@ -4950,19 +4950,19 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -5041,25 +5041,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.627437207831</v>
@@ -5068,19 +5068,19 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>711.3743239205529</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028587</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1476.268561306931</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1476.268561306931</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>1221.584073101044</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W13" t="n">
-        <v>932.166903064083</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X13" t="n">
-        <v>932.166903064083</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y13" t="n">
-        <v>711.3743239205529</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5257,19 +5257,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5278,28 +5278,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
@@ -5311,13 +5311,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5357,16 +5357,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>436.8967109626369</v>
+        <v>436.8967109626374</v>
       </c>
       <c r="L15" t="n">
         <v>1050.793780719526</v>
       </c>
       <c r="M15" t="n">
-        <v>1819.161927111987</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N15" t="n">
         <v>2623.573505376138</v>
@@ -5436,16 +5436,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,13 +5454,13 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
         <v>1382.222354598087</v>
@@ -5512,37 +5512,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5591,19 +5591,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
         <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
-        <v>2056.693778606511</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>565.0010960824701</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>396.0649131545632</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>245.9482737422275</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>245.9482737422275</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>99.05832624431713</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.210845262961</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V19" t="n">
-        <v>1075.210845262961</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W19" t="n">
-        <v>785.7936752260002</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X19" t="n">
-        <v>785.7936752260002</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>565.0010960824701</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5731,37 +5731,37 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514095</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5770,28 +5770,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5828,19 +5828,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1050.793780719526</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M21" t="n">
-        <v>1819.161927111987</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609669</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>731.31772835508</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>441.9005583181194</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,25 +5968,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
@@ -5998,22 +5998,22 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6065,19 +6065,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M24" t="n">
-        <v>2056.693778606511</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>545.6648329070714</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>545.6648329070714</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1387.841167119728</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>1283.86413298558</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>994.4469629486189</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>766.4574120506015</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>545.6648329070714</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,25 +6211,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6247,31 +6247,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6293,28 +6293,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.32563221405</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M27" t="n">
-        <v>2056.693778606511</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>356.6647764207315</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="C28" t="n">
-        <v>356.6647764207315</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="D28" t="n">
-        <v>356.6647764207315</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383384</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1164.055751909234</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>909.3712637033467</v>
+        <v>1111.565224087838</v>
       </c>
       <c r="W28" t="n">
-        <v>766.3027921489885</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="X28" t="n">
-        <v>538.3132412509711</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="Y28" t="n">
-        <v>538.3132412509711</v>
+        <v>822.1480540508779</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6466,7 +6466,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,7 +6481,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6490,19 +6490,19 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590536</v>
@@ -6551,7 +6551,7 @@
         <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>2056.693778606511</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>673.9335914287639</v>
+        <v>582.2416896507652</v>
       </c>
       <c r="C31" t="n">
-        <v>673.9335914287639</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D31" t="n">
-        <v>523.8169520164281</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E31" t="n">
-        <v>523.8169520164281</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V31" t="n">
-        <v>964.1357418247858</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W31" t="n">
-        <v>855.5820562590036</v>
+        <v>803.0342687942954</v>
       </c>
       <c r="X31" t="n">
-        <v>855.5820562590036</v>
+        <v>803.0342687942954</v>
       </c>
       <c r="Y31" t="n">
-        <v>855.5820562590036</v>
+        <v>582.2416896507652</v>
       </c>
     </row>
     <row r="32">
@@ -6788,7 +6788,7 @@
         <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>2056.693778606511</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N33" t="n">
         <v>2623.573505376138</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>558.0926555785013</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6894,16 +6894,16 @@
         <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>786.0822064765186</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>786.0822064765186</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>558.0926555785013</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>558.0926555785013</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6940,25 +6940,25 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1313.886294955175</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>1209.787631771461</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>920.3704617344999</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>692.3809108364826</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>692.3809108364826</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,7 +7162,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C40" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D40" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7362,22 +7362,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1211.935115357083</v>
+        <v>1158.508079257328</v>
       </c>
       <c r="U40" t="n">
-        <v>1211.935115357083</v>
+        <v>869.3794404708858</v>
       </c>
       <c r="V40" t="n">
-        <v>957.2506271511957</v>
+        <v>869.3794404708858</v>
       </c>
       <c r="W40" t="n">
-        <v>667.8334571142351</v>
+        <v>579.9622704339251</v>
       </c>
       <c r="X40" t="n">
-        <v>667.8334571142351</v>
+        <v>579.9622704339251</v>
       </c>
       <c r="Y40" t="n">
-        <v>447.040877970705</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="41">
@@ -7390,28 +7390,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514082</v>
@@ -7429,7 +7429,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.627437207829</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7599,22 +7599,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1194.522869722014</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>905.3942309355725</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>905.3942309355725</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>615.9770608986119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>615.9770608986119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>615.9770608986119</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7642,7 +7642,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7666,7 +7666,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8792,7 +8792,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23466,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>199.1263288999272</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>40.67825230693376</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338523</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23892,19 +23892,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>164.6707460271867</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
-        <v>103.0576765518768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24369,10 +24369,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,7 +24381,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>149.2003795310213</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24612,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>154.8974597170421</v>
       </c>
       <c r="W28" t="n">
-        <v>144.8852114977764</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>179.0548496264666</v>
+        <v>71.28502097283729</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>26.38740945250828</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.09028268721536</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25362,16 +25362,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>14.74113413690324</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>135.3570273931809</v>
+        <v>82.4642616544235</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25839,19 +25839,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>118.1189042144633</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>137.0923187137978</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26034,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885326</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885326</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448195</v>
       </c>
       <c r="E2" t="n">
-        <v>606095.042593449</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="F2" t="n">
+        <v>606095.0425934483</v>
+      </c>
+      <c r="G2" t="n">
         <v>606095.0425934487</v>
       </c>
-      <c r="G2" t="n">
-        <v>606095.0425934488</v>
-      </c>
       <c r="H2" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="I2" t="n">
         <v>606095.0425934485</v>
@@ -26340,10 +26340,10 @@
         <v>606095.0425934484</v>
       </c>
       <c r="K2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="L2" t="n">
         <v>606095.0425934485</v>
-      </c>
-      <c r="L2" t="n">
-        <v>606095.0425934484</v>
       </c>
       <c r="M2" t="n">
         <v>606095.0425934484</v>
@@ -26352,10 +26352,10 @@
         <v>606095.0425934484</v>
       </c>
       <c r="O2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934483</v>
       </c>
       <c r="P2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934488</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
@@ -26429,37 +26429,37 @@
         <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
+        <v>787.7936905758216</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="G4" t="n">
-        <v>787.7936905758696</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905758694</v>
-      </c>
       <c r="J4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905759185</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905759103</v>
       </c>
       <c r="L4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26481,19 +26481,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-175578.7248137533</v>
+        <v>-175578.7248137532</v>
       </c>
       <c r="C6" t="n">
-        <v>414389.1544007912</v>
+        <v>414389.154400791</v>
       </c>
       <c r="D6" t="n">
         <v>414389.154400791</v>
       </c>
       <c r="E6" t="n">
-        <v>-12814.70478246152</v>
+        <v>-11937.57264871227</v>
       </c>
       <c r="F6" t="n">
-        <v>512345.3316944342</v>
+        <v>513222.4638281837</v>
       </c>
       <c r="G6" t="n">
-        <v>512345.3316944346</v>
+        <v>513222.463828184</v>
       </c>
       <c r="H6" t="n">
-        <v>512345.3316944346</v>
+        <v>513222.4638281839</v>
       </c>
       <c r="I6" t="n">
-        <v>512345.3316944345</v>
+        <v>513222.4638281839</v>
       </c>
       <c r="J6" t="n">
-        <v>335922.1125018414</v>
+        <v>336799.2446355908</v>
       </c>
       <c r="K6" t="n">
-        <v>512345.3316944344</v>
+        <v>513222.4638281838</v>
       </c>
       <c r="L6" t="n">
-        <v>512345.3316944343</v>
+        <v>513222.4638281839</v>
       </c>
       <c r="M6" t="n">
-        <v>377544.316460597</v>
+        <v>378421.4485943466</v>
       </c>
       <c r="N6" t="n">
-        <v>512345.3316944343</v>
+        <v>513222.4638281838</v>
       </c>
       <c r="O6" t="n">
-        <v>512345.3316944345</v>
+        <v>513222.4638281837</v>
       </c>
       <c r="P6" t="n">
-        <v>512345.3316944343</v>
+        <v>513222.4638281841</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26749,13 +26749,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26971,7 +26971,7 @@
         <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>321.4685793061306</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>50.61924544429631</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>53.2852373946528</v>
+        <v>53.28523739465257</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>335.2306406500769</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>109.6463534590486</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>190.0743229399514</v>
+        <v>190.0743229399511</v>
       </c>
     </row>
     <row r="8">
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>375.9469818809424</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>98.95375469339484</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29577,7 +29577,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,13 +31357,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>60.29709682323551</v>
+        <v>60.29709682323505</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>60.29709682323596</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31864,7 +31864,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677465</v>
@@ -31989,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,37 +32001,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,22 +32074,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>48.48571443651636</v>
+        <v>48.48571443651693</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,28 +32305,28 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>212.6272478467031</v>
       </c>
       <c r="N18" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -32341,10 +32341,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,28 +32542,28 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>147.8809216101168</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -32578,10 +32578,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565529</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32791,7 +32791,7 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>48.48571443651716</v>
       </c>
       <c r="L24" t="n">
         <v>387.8120847358985</v>
@@ -32800,7 +32800,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -33031,13 +33031,13 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>147.8809216101175</v>
       </c>
       <c r="M27" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>212.6272478467031</v>
       </c>
       <c r="N30" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>212.6272478467031</v>
       </c>
       <c r="N33" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33660,7 +33660,7 @@
         <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L35" t="n">
         <v>526.796267130444</v>
@@ -33681,7 +33681,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
         <v>76.06970478104648</v>
@@ -34234,7 +34234,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677464</v>
@@ -34386,10 +34386,10 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946997</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647508</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
@@ -34471,7 +34471,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35266,7 +35266,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>175.109512474736</v>
+        <v>175.1095124747365</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,16 +35965,16 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>536.1982776746847</v>
       </c>
       <c r="N18" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,16 +36202,16 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>380.1668871337018</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36439,7 +36439,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>175.1095124747368</v>
       </c>
       <c r="L24" t="n">
         <v>620.0980502594834</v>
@@ -36448,7 +36448,7 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36679,13 +36679,13 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>380.1668871337025</v>
       </c>
       <c r="M27" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36919,10 +36919,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>536.1982776746847</v>
       </c>
       <c r="N30" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37156,10 +37156,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>536.1982776746847</v>
       </c>
       <c r="N33" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38034,10 +38034,10 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
         <v>59.82538970349808</v>
